--- a/app/views/templates/cheo/normal.xlsx
+++ b/app/views/templates/cheo/normal.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="考え方- Tu duy" sheetId="4" r:id="rId1"/>
-    <sheet name="熱意- Nhiet tinh" sheetId="5" r:id="rId2"/>
-    <sheet name="Vai trò -Chung " sheetId="6" r:id="rId3"/>
+    <sheet name="考え方- tu_duy" sheetId="4" r:id="rId1"/>
+    <sheet name="熱意- nhiet_tinh" sheetId="5" r:id="rId2"/>
+    <sheet name="chung- vai_tro " sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -39,74 +39,6 @@
   </si>
   <si>
     <t>レビュー
-Review- anh Lâm</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Tri</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Tài</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thịnh</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Linh</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Lệ</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Long</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Nhu</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Đạt</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Dũng</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Nam</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Khương</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thuận</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thảo(nữ)</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Tuấn Anh</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thảo (nam)</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Minh</t>
-  </si>
-  <si>
-    <t>レビュー
 Review</t>
   </si>
   <si>
@@ -1406,6 +1338,74 @@
       </rPr>
       <t>Thường xuyên có cản trở /  ảnh hưởng</t>
     </r>
+  </si>
+  <si>
+    <t>レビュー
+Review- DangThanhLam</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenMinhTri</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- TranPhatTai</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- DangPhatThinh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- LeThiThuyLinh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenThiNhatLe</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- LeMinhLong</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- DangHoangNhu</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- TranTienDat</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- DinHienDung</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- MaiNhatNam</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenLeKhuong</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- TranKhanhThuan</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenHuynhThanhThao</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- PhamTuanAnh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenVanThao</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenQuangMinh</t>
   </si>
 </sst>
 </file>
@@ -1807,9 +1807,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,27 +1834,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1879,6 +1855,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,25 +1906,7 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2257,14 +2257,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="78.85546875" style="25" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
@@ -2287,67 +2287,67 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" ht="78.75">
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="90">
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="V2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="24">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="F3" s="14"/>
@@ -2390,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D4" s="13"/>
       <c r="F4" s="14"/>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13"/>
       <c r="F5" s="14"/>
@@ -2457,13 +2457,13 @@
     </row>
     <row r="6" spans="1:23" ht="30">
       <c r="A6" s="17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D6" s="13"/>
       <c r="F6" s="14"/>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="7" spans="1:23" ht="30">
       <c r="A7" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D7" s="13"/>
       <c r="F7" s="14"/>
@@ -2536,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13"/>
       <c r="F8" s="14"/>
@@ -2568,13 +2568,13 @@
     </row>
     <row r="9" spans="1:23" ht="30">
       <c r="A9" s="17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13"/>
       <c r="F9" s="14"/>
@@ -2609,7 +2609,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D10" s="13"/>
       <c r="F10" s="14"/>
@@ -2644,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13"/>
       <c r="F11" s="14"/>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="12" spans="1:23" ht="24">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B12" s="11">
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="F12" s="14"/>
@@ -2717,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13"/>
       <c r="F13" s="14"/>
@@ -2752,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13"/>
       <c r="F14" s="14"/>
@@ -2787,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="14"/>
@@ -2822,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="14"/>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="17" spans="1:23" ht="30">
       <c r="A17" s="17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B17" s="11">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D17" s="13"/>
       <c r="F17" s="14"/>
@@ -2895,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13"/>
       <c r="F18" s="14"/>
@@ -2930,7 +2930,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13"/>
       <c r="F19" s="14"/>
@@ -2965,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D20" s="13"/>
       <c r="F20" s="14"/>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="21" spans="1:23" ht="30">
       <c r="A21" s="17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D21" s="13"/>
       <c r="F21" s="14"/>
@@ -3038,7 +3038,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D22" s="13"/>
       <c r="F22" s="14"/>
@@ -3073,7 +3073,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D23" s="13"/>
       <c r="F23" s="18"/>
@@ -3108,7 +3108,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D24" s="13"/>
       <c r="U24" s="15" t="e">
@@ -3128,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D25" s="13"/>
       <c r="U25" s="15" t="e">
@@ -3148,7 +3148,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D26" s="13"/>
       <c r="U26" s="15" t="e">
@@ -3168,7 +3168,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D27" s="13"/>
       <c r="U27" s="15" t="e">
@@ -3184,10 +3184,10 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="B28" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="39"/>
       <c r="D28" s="3">
         <f>SUM(D3:D27)</f>
         <v>0</v>
@@ -3256,82 +3256,82 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W28" s="20" t="e">
+      <c r="W28" s="19" t="e">
         <f>SUM(W3:W27)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="36">
-      <c r="B30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="B30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:23" ht="24">
       <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="25"/>
+      <c r="C31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:23" ht="27" customHeight="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="C32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="2:4" ht="24">
       <c r="B33" s="11">
         <v>2</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="25"/>
+      <c r="C33" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="2:4" ht="24">
       <c r="B34" s="11">
         <v>0</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="25"/>
+      <c r="C34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="2:4" ht="24">
       <c r="B35" s="11">
         <v>-2</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="25"/>
+      <c r="C35" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:4" ht="24">
       <c r="B36" s="11">
         <v>-5</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="C36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="2:4" ht="24">
       <c r="B37" s="11">
         <v>-10</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="C37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3349,18 +3349,18 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28:U28"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="28" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
@@ -3375,10 +3375,10 @@
   <sheetData>
     <row r="1" spans="1:24" ht="33.75">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -3386,80 +3386,80 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" ht="78.75">
+    <row r="2" spans="1:24" s="6" customFormat="1" ht="90">
       <c r="C2" s="7"/>
       <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="24">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="30"/>
+      <c r="B3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="41"/>
       <c r="E3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3492,13 +3492,13 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="30"/>
+      <c r="B4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="41"/>
       <c r="E4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3531,13 +3531,13 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="30"/>
+      <c r="B5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="41"/>
       <c r="E5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3570,13 +3570,13 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="32"/>
+      <c r="B6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43"/>
       <c r="E6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3609,13 +3609,13 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="30"/>
+      <c r="B7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3648,13 +3648,13 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="30"/>
+      <c r="B8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3687,13 +3687,13 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="32"/>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -3726,13 +3726,13 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="30"/>
+      <c r="B10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="41"/>
       <c r="E10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3765,13 +3765,13 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="30"/>
+      <c r="B11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="41"/>
       <c r="E11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3804,13 +3804,13 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="30"/>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="41"/>
       <c r="E12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3843,13 +3843,13 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="30"/>
+      <c r="B13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="41"/>
       <c r="E13" s="13"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3882,13 +3882,13 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="30"/>
+      <c r="B14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="41"/>
       <c r="E14" s="13"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3921,13 +3921,13 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="30"/>
+      <c r="B15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="41"/>
       <c r="E15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3960,13 +3960,13 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="30"/>
+      <c r="B16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -3999,13 +3999,13 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="30"/>
+      <c r="B17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="41"/>
       <c r="E17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -4038,13 +4038,13 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="30"/>
+      <c r="B18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="41"/>
       <c r="E18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -4077,13 +4077,13 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="41"/>
       <c r="E19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -4116,13 +4116,13 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="30"/>
+      <c r="B20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="41"/>
       <c r="E20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -4155,13 +4155,13 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="30"/>
+      <c r="B21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -4194,13 +4194,13 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="30"/>
+      <c r="B22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -4233,13 +4233,13 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="30"/>
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="41"/>
       <c r="E23" s="13"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -4272,13 +4272,13 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="32"/>
+      <c r="B24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="43"/>
       <c r="E24" s="13"/>
       <c r="V24" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4296,13 +4296,13 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="32"/>
+      <c r="B25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="43"/>
       <c r="E25" s="13"/>
       <c r="V25" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4320,13 +4320,13 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="30"/>
+      <c r="B26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="41"/>
       <c r="E26" s="13"/>
       <c r="V26" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4344,13 +4344,13 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="32"/>
+      <c r="B27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="43"/>
       <c r="E27" s="13"/>
       <c r="V27" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4365,11 +4365,11 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="3">
         <f>SUM(E3:E27)</f>
         <v>0</v>
@@ -4439,80 +4439,80 @@
         <v>0</v>
       </c>
       <c r="V28" s="5"/>
-      <c r="X28" s="20" t="e">
+      <c r="X28" s="19" t="e">
         <f>SUM(X3:X27)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="24">
-      <c r="B30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:24" ht="51.75" customHeight="1">
       <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:24" ht="33.75" customHeight="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="2:5" ht="31.5" customHeight="1">
       <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="39" customHeight="1">
       <c r="B35" s="11">
         <v>1</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5" ht="36.75" customHeight="1">
       <c r="B36" s="11">
         <v>0</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="25"/>
+      <c r="C36" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4525,11 +4525,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -4537,11 +4532,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4549,6 +4544,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -4562,18 +4562,18 @@
   </sheetPr>
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="5.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="29" customWidth="1"/>
     <col min="4" max="4" width="90.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="3" customWidth="1"/>
@@ -4586,90 +4586,90 @@
   <sheetData>
     <row r="1" spans="1:24" ht="33.75">
       <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" ht="78.75">
+    <row r="2" spans="1:24" s="6" customFormat="1" ht="90">
       <c r="C2" s="7"/>
       <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A3" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="40">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>104</v>
+      <c r="D3" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="V3" s="15" t="e">
         <f>AVERAGE(E3:U3)</f>
@@ -4684,17 +4684,17 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="14" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="A4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="32">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>105</v>
+      <c r="D4" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="V4" s="15" t="e">
         <f t="shared" ref="V4:V22" si="0">AVERAGE(E4:U4)</f>
@@ -4709,17 +4709,17 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="14" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="A5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="32">
         <v>3</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>106</v>
+      <c r="D5" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="V5" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4734,17 +4734,17 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A6" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="A6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="32">
         <v>4</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>107</v>
+      <c r="D6" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="V6" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4759,17 +4759,17 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A7" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="A7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="32">
         <v>5</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>108</v>
+      <c r="D7" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="V7" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4784,17 +4784,17 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A8" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="40">
+      <c r="A8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="32">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>109</v>
+      <c r="D8" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="V8" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4809,17 +4809,17 @@
       </c>
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="40">
+      <c r="A9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="32">
         <v>7</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>110</v>
+      <c r="D9" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="V9" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4834,17 +4834,17 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="40">
+      <c r="A10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="32">
         <v>8</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>111</v>
+      <c r="D10" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="V10" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4859,17 +4859,17 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A11" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="40">
+      <c r="A11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="32">
         <v>9</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>112</v>
+      <c r="D11" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="V11" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4884,17 +4884,17 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A12" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="40">
+      <c r="A12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="32">
         <v>10</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>113</v>
+      <c r="D12" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="V12" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4909,17 +4909,17 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A13" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="40">
+      <c r="A13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="32">
         <v>11</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>114</v>
+      <c r="D13" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="V13" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4934,17 +4934,17 @@
       </c>
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A14" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="A14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="32">
         <v>12</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>115</v>
+      <c r="D14" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="V14" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4959,17 +4959,17 @@
       </c>
     </row>
     <row r="15" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A15" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="40">
+      <c r="A15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="32">
         <v>13</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>116</v>
+      <c r="D15" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="V15" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4984,17 +4984,17 @@
       </c>
     </row>
     <row r="16" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A16" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="40">
+      <c r="A16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="32">
         <v>14</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>117</v>
+      <c r="D16" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="V16" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5009,17 +5009,17 @@
       </c>
     </row>
     <row r="17" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A17" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="40">
+      <c r="A17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="32">
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>118</v>
+      <c r="D17" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="V17" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5034,17 +5034,17 @@
       </c>
     </row>
     <row r="18" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="32">
+        <v>16</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="40">
-        <v>16</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>119</v>
       </c>
       <c r="V18" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5059,17 +5059,17 @@
       </c>
     </row>
     <row r="19" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A19" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="32">
+        <v>17</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="C19" s="40">
-        <v>17</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>120</v>
       </c>
       <c r="V19" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5084,17 +5084,17 @@
       </c>
     </row>
     <row r="20" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A20" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="40">
+      <c r="A20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="32">
         <v>18</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>121</v>
+      <c r="D20" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="V20" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5109,17 +5109,17 @@
       </c>
     </row>
     <row r="21" spans="1:24" s="14" customFormat="1" ht="31.5">
-      <c r="A21" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="40">
+      <c r="A21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="32">
         <v>19</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>122</v>
+      <c r="D21" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="V21" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5134,17 +5134,17 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="14" customFormat="1" ht="15.75">
-      <c r="A22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="A22" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="34">
         <v>20</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>123</v>
+      <c r="D22" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="V22" s="15" t="e">
         <f t="shared" si="0"/>
@@ -5159,11 +5159,11 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75">
-      <c r="B23" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="18">
         <f t="shared" ref="E23:U23" si="2">SUM(E3:E22)</f>
         <v>0</v>
@@ -5233,14 +5233,14 @@
         <v>0</v>
       </c>
       <c r="V23" s="3"/>
-      <c r="X23" s="46" t="e">
+      <c r="X23" s="35" t="e">
         <f>SUM(X2:X22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="V24" s="3"/>
-      <c r="X24" s="47" t="e">
+      <c r="X24" s="36" t="e">
         <f>X23+'[1]熱意- Nhiet tinh'!X28+'[1]考え方- Tu duy'!W28</f>
         <v>#DIV/0!</v>
       </c>
@@ -5249,69 +5249,69 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:24" ht="60">
-      <c r="B26" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="49"/>
+      <c r="B26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="52"/>
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B27" s="50">
+      <c r="B27" s="38">
         <v>5</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="52"/>
+      <c r="C27" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="48"/>
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B28" s="50">
+      <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="52"/>
+      <c r="C28" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B29" s="50">
+      <c r="B29" s="38">
         <v>3</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="52"/>
+      <c r="C29" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B30" s="50">
+      <c r="B30" s="38">
         <v>2</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="52"/>
+      <c r="C30" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B31" s="50">
+      <c r="B31" s="38">
         <v>1</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="52"/>
+      <c r="C31" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B32" s="50">
-        <v>0</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="52"/>
+      <c r="B32" s="38">
+        <v>0</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/app/views/templates/cheo/normal.xlsx
+++ b/app/views/templates/cheo/normal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考え方- tu_duy" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <r>
       <t xml:space="preserve">考え方評価   </t>
@@ -1406,13 +1406,16 @@
   <si>
     <t>レビュー
 Review- NguyenQuangMinh</t>
+  </si>
+  <si>
+    <t>Tổng điểm review chéo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,8 +1613,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,6 +1661,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6D9F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1867,29 +1901,44 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2254,7 +2303,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2:T2"/>
@@ -3184,10 +3233,10 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="39"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="3">
         <f>SUM(D3:D27)</f>
         <v>0</v>
@@ -3349,7 +3398,7 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3456,10 +3505,10 @@
       <c r="B3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3495,10 +3544,10 @@
       <c r="B4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3534,10 +3583,10 @@
       <c r="B5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3573,10 +3622,10 @@
       <c r="B6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3612,10 +3661,10 @@
       <c r="B7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3651,10 +3700,10 @@
       <c r="B8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3690,10 +3739,10 @@
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -3729,10 +3778,10 @@
       <c r="B10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3768,10 +3817,10 @@
       <c r="B11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3807,10 +3856,10 @@
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3846,10 +3895,10 @@
       <c r="B13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="13"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3885,10 +3934,10 @@
       <c r="B14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="13"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3924,10 +3973,10 @@
       <c r="B15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3963,10 +4012,10 @@
       <c r="B16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -4002,10 +4051,10 @@
       <c r="B17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -4041,10 +4090,10 @@
       <c r="B18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -4080,10 +4129,10 @@
       <c r="B19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -4119,10 +4168,10 @@
       <c r="B20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -4158,10 +4207,10 @@
       <c r="B21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -4197,10 +4246,10 @@
       <c r="B22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -4236,10 +4285,10 @@
       <c r="B23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="13"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -4275,10 +4324,10 @@
       <c r="B24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="13"/>
       <c r="V24" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4299,10 +4348,10 @@
       <c r="B25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="13"/>
       <c r="V25" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4323,10 +4372,10 @@
       <c r="B26" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="41"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="13"/>
       <c r="V26" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4347,10 +4396,10 @@
       <c r="B27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="13"/>
       <c r="V27" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4365,11 +4414,11 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="3">
         <f>SUM(E3:E27)</f>
         <v>0</v>
@@ -4448,83 +4497,86 @@
       <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:24" ht="51.75" customHeight="1">
       <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:24" ht="33.75" customHeight="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="2:5" ht="31.5" customHeight="1">
       <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="39" customHeight="1">
       <c r="B35" s="11">
         <v>1</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5" ht="36.75" customHeight="1">
       <c r="B36" s="11">
         <v>0</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -4537,18 +4589,15 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -4560,13 +4609,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:U2"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4581,10 +4630,11 @@
     <col min="22" max="22" width="8.7109375" style="5" customWidth="1"/>
     <col min="23" max="23" width="10.28515625" style="3" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="25" max="25" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.75">
+    <row r="1" spans="1:25" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="6" customFormat="1" ht="90">
+    <row r="2" spans="1:25" s="6" customFormat="1" ht="90">
       <c r="C2" s="7"/>
       <c r="E2" s="8" t="s">
         <v>116</v>
@@ -4603,62 +4653,65 @@
       <c r="F2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="31.5">
+      <c r="Y2" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
@@ -4682,8 +4735,12 @@
         <f>V3*W3</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="14" customFormat="1" ht="29.1" customHeight="1">
+      <c r="Y3" s="40" t="e">
+        <f>SUM(X23, '熱意- nhiet_tinh'!X28, '考え方- tu_duy'!W28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="14" customFormat="1" ht="29.1" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>85</v>
       </c>
@@ -4708,7 +4765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="14" customFormat="1" ht="29.1" customHeight="1">
+    <row r="5" spans="1:25" s="14" customFormat="1" ht="29.1" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>85</v>
       </c>
@@ -4733,7 +4790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="14" customFormat="1" ht="31.5">
+    <row r="6" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A6" s="31" t="s">
         <v>85</v>
       </c>
@@ -4758,7 +4815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="14" customFormat="1" ht="31.5">
+    <row r="7" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A7" s="31" t="s">
         <v>85</v>
       </c>
@@ -4783,7 +4840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="14" customFormat="1" ht="31.5">
+    <row r="8" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A8" s="31" t="s">
         <v>85</v>
       </c>
@@ -4808,7 +4865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="14" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:25" s="14" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>85</v>
       </c>
@@ -4833,7 +4890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="10" spans="1:25" s="14" customFormat="1" ht="15.75">
       <c r="A10" s="31" t="s">
         <v>85</v>
       </c>
@@ -4858,7 +4915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="11" spans="1:25" s="14" customFormat="1" ht="15.75">
       <c r="A11" s="31" t="s">
         <v>85</v>
       </c>
@@ -4883,7 +4940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="14" customFormat="1" ht="31.5">
+    <row r="12" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A12" s="31" t="s">
         <v>85</v>
       </c>
@@ -4908,7 +4965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="14" customFormat="1" ht="31.5">
+    <row r="13" spans="1:25" s="14" customFormat="1" ht="31.5">
       <c r="A13" s="31" t="s">
         <v>85</v>
       </c>
@@ -4933,7 +4990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="14" spans="1:25" s="14" customFormat="1" ht="15.75">
       <c r="A14" s="31" t="s">
         <v>85</v>
       </c>
@@ -4958,7 +5015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="15" spans="1:25" s="14" customFormat="1" ht="15.75">
       <c r="A15" s="31" t="s">
         <v>85</v>
       </c>
@@ -4983,7 +5040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="14" customFormat="1" ht="15.75">
+    <row r="16" spans="1:25" s="14" customFormat="1" ht="15.75">
       <c r="A16" s="31" t="s">
         <v>85</v>
       </c>
@@ -5159,11 +5216,11 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="18">
         <f t="shared" ref="E23:U23" si="2">SUM(E3:E22)</f>
         <v>0</v>
@@ -5252,66 +5309,66 @@
       <c r="B26" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="57"/>
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:24" ht="31.5" customHeight="1">
       <c r="B27" s="38">
         <v>5</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="53"/>
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="1:24" ht="31.5" customHeight="1">
       <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:24" ht="31.5" customHeight="1">
       <c r="B29" s="38">
         <v>3</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:24" ht="31.5" customHeight="1">
       <c r="B30" s="38">
         <v>2</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:24" ht="31.5" customHeight="1">
       <c r="B31" s="38">
         <v>1</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="48"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:24" ht="31.5" customHeight="1">
       <c r="B32" s="38">
         <v>0</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="48"/>
+      <c r="D32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/app/views/templates/cheo/normal.xlsx
+++ b/app/views/templates/cheo/normal.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="考え方- tu_duy" sheetId="4" r:id="rId1"/>
     <sheet name="熱意- nhiet_tinh" sheetId="5" r:id="rId2"/>
     <sheet name="chung- vai_tro " sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
@@ -1919,26 +1916,26 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1971,43 +1968,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="考え方- Tu duy"/>
-      <sheetName val="熱意- Nhiet tinh"/>
-      <sheetName val="Vai trò -Chung "/>
-      <sheetName val="Vai trò -Leader"/>
-      <sheetName val="Vai trò -Manager"/>
-      <sheetName val="能力"/>
-      <sheetName val="スキル2.0"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="W28" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="28">
-          <cell r="X28" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3398,11 +3358,11 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3505,10 +3465,10 @@
       <c r="B3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3544,10 +3504,10 @@
       <c r="B4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3583,10 +3543,10 @@
       <c r="B5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -3622,10 +3582,10 @@
       <c r="B6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -3661,10 +3621,10 @@
       <c r="B7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3700,10 +3660,10 @@
       <c r="B8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3739,10 +3699,10 @@
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -3778,10 +3738,10 @@
       <c r="B10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -3817,10 +3777,10 @@
       <c r="B11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -3856,10 +3816,10 @@
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -3895,10 +3855,10 @@
       <c r="B13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="13"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3934,10 +3894,10 @@
       <c r="B14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="13"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3973,10 +3933,10 @@
       <c r="B15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -4012,10 +3972,10 @@
       <c r="B16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -4051,10 +4011,10 @@
       <c r="B17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -4090,10 +4050,10 @@
       <c r="B18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -4129,10 +4089,10 @@
       <c r="B19" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -4168,10 +4128,10 @@
       <c r="B20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -4207,10 +4167,10 @@
       <c r="B21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -4246,10 +4206,10 @@
       <c r="B22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -4285,10 +4245,10 @@
       <c r="B23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="13"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -4324,10 +4284,10 @@
       <c r="B24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="13"/>
       <c r="V24" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4348,10 +4308,10 @@
       <c r="B25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="13"/>
       <c r="V25" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4372,10 +4332,10 @@
       <c r="B26" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="13"/>
       <c r="V26" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4396,10 +4356,10 @@
       <c r="B27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="13"/>
       <c r="V27" s="15" t="e">
         <f t="shared" si="0"/>
@@ -4497,74 +4457,95 @@
       <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:24" ht="51.75" customHeight="1">
       <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:24" ht="33.75" customHeight="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="2:5" ht="31.5" customHeight="1">
       <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="39" customHeight="1">
       <c r="B35" s="11">
         <v>1</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5" ht="36.75" customHeight="1">
       <c r="B36" s="11">
         <v>0</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4577,27 +4558,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
@@ -4611,11 +4571,11 @@
   </sheetPr>
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5298,7 +5258,7 @@
     <row r="24" spans="1:24">
       <c r="V24" s="3"/>
       <c r="X24" s="36" t="e">
-        <f>X23+'[1]熱意- Nhiet tinh'!X28+'[1]考え方- Tu duy'!W28</f>
+        <f>X23+'熱意- nhiet_tinh'!X28+'考え方- tu_duy'!W28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
